--- a/income_report.xlsx
+++ b/income_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,19 +546,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Honor</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bosch Chopper</t>
+          <t>Honor X8 B</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1500000</v>
+        <v>2600000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -566,33 +566,33 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sana: 2025-03-24, Vaqt: 21-52-18</t>
+          <t>Sana: 2025-03-27, Vaqt: 15-10-41</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4500000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Xioami</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bosch Chopper</t>
+          <t>Xiaomi Pad 6</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>400000</v>
+        <v>3500000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -600,113 +600,45 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60000</v>
+        <v>500000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sana: 2025-03-25, Vaqt: 11-23-59</t>
+          <t>Sana: 2025-03-27, Vaqt: 15-10-41</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>400000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Honor</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Honor X8 B</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2600000</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Sana: 2025-03-27, Vaqt: 15-10-41</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2600000</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Xioami</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Xiaomi Pad 6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3500000</v>
-      </c>
+          <t>Jami</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Sana: 2025-03-27, Vaqt: 15-10-41</t>
-        </is>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jami</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>14983672.98</v>
+        <v>779.7</v>
       </c>
     </row>
   </sheetData>
